--- a/output2/【河洛話注音】金剛般若波羅蜜經017.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7672A1BA-9B0C-4D19-BC47-957B59BC7F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD56E6AA-F054-481A-BD8A-3DBDD9471F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="5475" yWindow="3945" windowWidth="31875" windowHeight="11295" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="502">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1980,10 +1980,6 @@
   </si>
   <si>
     <t>ㄉㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4039,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A194" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
@@ -6476,16 +6472,16 @@
         <v>327</v>
       </c>
       <c r="E64" s="85" t="s">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="F64" s="85"/>
       <c r="G64" s="85"/>
       <c r="H64" s="85"/>
       <c r="I64" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J64" s="85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K64" s="85"/>
       <c r="L64" s="85" t="s">
@@ -6502,7 +6498,7 @@
         <v>309</v>
       </c>
       <c r="Q64" s="85" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R64" s="85" t="s">
         <v>331</v>
@@ -6569,16 +6565,16 @@
         <v>328</v>
       </c>
       <c r="E66" s="86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F66" s="86"/>
       <c r="G66" s="86"/>
       <c r="H66" s="86"/>
       <c r="I66" s="86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J66" s="86" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K66" s="86"/>
       <c r="L66" s="86" t="s">
@@ -6595,7 +6591,7 @@
         <v>310</v>
       </c>
       <c r="Q66" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R66" s="86" t="s">
         <v>332</v>
@@ -6629,10 +6625,10 @@
         <v>423</v>
       </c>
       <c r="E68" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F68" s="85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G68" s="85"/>
       <c r="H68" s="85" t="s">
@@ -6728,10 +6724,10 @@
         <v>424</v>
       </c>
       <c r="E70" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F70" s="86" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G70" s="86"/>
       <c r="H70" s="86" t="s">
@@ -7457,10 +7453,10 @@
         <v>419</v>
       </c>
       <c r="P88" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q88" s="85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R88" s="85" t="s">
         <v>309</v>
@@ -7558,10 +7554,10 @@
         <v>420</v>
       </c>
       <c r="P90" s="86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q90" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R90" s="86" t="s">
         <v>310</v>
@@ -7595,12 +7591,12 @@
         <v>417</v>
       </c>
       <c r="E92" s="85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F92" s="85"/>
       <c r="G92" s="85"/>
       <c r="H92" s="85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I92" s="85" t="s">
         <v>425</v>
@@ -7618,17 +7614,17 @@
         <v>435</v>
       </c>
       <c r="N92" s="85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O92" s="85" t="s">
         <v>331</v>
       </c>
       <c r="P92" s="85"/>
       <c r="Q92" s="85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R92" s="85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S92" s="94"/>
       <c r="V92" s="60"/>
@@ -7692,12 +7688,12 @@
         <v>418</v>
       </c>
       <c r="E94" s="86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F94" s="86"/>
       <c r="G94" s="86"/>
       <c r="H94" s="86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I94" s="86" t="s">
         <v>426</v>
@@ -7715,17 +7711,17 @@
         <v>436</v>
       </c>
       <c r="N94" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O94" s="86" t="s">
         <v>332</v>
       </c>
       <c r="P94" s="86"/>
       <c r="Q94" s="86" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R94" s="86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S94" s="97"/>
       <c r="V94" s="60"/>
@@ -7753,13 +7749,13 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E96" s="85" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F96" s="85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G96" s="85"/>
       <c r="H96" s="85"/>
@@ -7850,13 +7846,13 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E98" s="86" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F98" s="86" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G98" s="86"/>
       <c r="H98" s="86"/>
@@ -7948,7 +7944,7 @@
         <v>331</v>
       </c>
       <c r="P100" s="85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q100" s="85" t="s">
         <v>309</v>
@@ -8049,7 +8045,7 @@
         <v>332</v>
       </c>
       <c r="P102" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q102" s="86" t="s">
         <v>310</v>
@@ -8083,11 +8079,11 @@
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
       <c r="D104" s="85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E104" s="85"/>
       <c r="F104" s="85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G104" s="85" t="s">
         <v>389</v>
@@ -8098,7 +8094,7 @@
       <c r="I104" s="85"/>
       <c r="J104" s="85"/>
       <c r="K104" s="85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L104" s="85" t="s">
         <v>425</v>
@@ -8117,7 +8113,7 @@
         <v>435</v>
       </c>
       <c r="R104" s="85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="S104" s="94"/>
       <c r="V104" s="60"/>
@@ -8178,11 +8174,11 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E106" s="86"/>
       <c r="F106" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G106" s="86" t="s">
         <v>390</v>
@@ -8193,7 +8189,7 @@
       <c r="I106" s="86"/>
       <c r="J106" s="86"/>
       <c r="K106" s="86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L106" s="86" t="s">
         <v>426</v>
@@ -8212,7 +8208,7 @@
         <v>436</v>
       </c>
       <c r="R106" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="S106" s="97"/>
       <c r="V106" s="60"/>
@@ -8244,19 +8240,19 @@
       </c>
       <c r="E108" s="85"/>
       <c r="F108" s="85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G108" s="85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H108" s="85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I108" s="85" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J108" s="85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K108" s="85"/>
       <c r="L108" s="85"/>
@@ -8317,19 +8313,19 @@
       </c>
       <c r="E110" s="86"/>
       <c r="F110" s="86" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G110" s="86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H110" s="86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I110" s="86" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J110" s="86" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K110" s="86"/>
       <c r="L110" s="86"/>
@@ -8390,7 +8386,7 @@
         <v>419</v>
       </c>
       <c r="O112" s="85" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P112" s="85" t="s">
         <v>349</v>
@@ -8399,7 +8395,7 @@
         <v>387</v>
       </c>
       <c r="R112" s="85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S112" s="94"/>
       <c r="V112" s="60"/>
@@ -8485,7 +8481,7 @@
         <v>420</v>
       </c>
       <c r="O114" s="86" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P114" s="86" t="s">
         <v>350</v>
@@ -8494,7 +8490,7 @@
         <v>388</v>
       </c>
       <c r="R114" s="86" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S114" s="97"/>
       <c r="V114" s="60"/>
@@ -9182,7 +9178,7 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="85" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E132" s="85" t="s">
         <v>307</v>
@@ -9194,7 +9190,7 @@
         <v>307</v>
       </c>
       <c r="H132" s="85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I132" s="85"/>
       <c r="J132" s="85" t="s">
@@ -9210,7 +9206,7 @@
         <v>429</v>
       </c>
       <c r="N132" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O132" s="85" t="s">
         <v>395</v>
@@ -9281,7 +9277,7 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="86" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E134" s="86" t="s">
         <v>308</v>
@@ -9293,7 +9289,7 @@
         <v>308</v>
       </c>
       <c r="H134" s="86" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I134" s="86"/>
       <c r="J134" s="86" t="s">
@@ -9309,7 +9305,7 @@
         <v>430</v>
       </c>
       <c r="N134" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O134" s="86" t="s">
         <v>396</v>
@@ -9347,7 +9343,7 @@
     <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="56"/>
       <c r="D136" s="85" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E136" s="85" t="s">
         <v>389</v>
@@ -9408,7 +9404,7 @@
     <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="58"/>
       <c r="D138" s="86" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E138" s="86" t="s">
         <v>390</v>
@@ -9629,7 +9625,7 @@
         <v>409</v>
       </c>
       <c r="J144" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K144" s="85" t="s">
         <v>395</v>
@@ -9712,7 +9708,7 @@
         <v>410</v>
       </c>
       <c r="J146" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K146" s="86" t="s">
         <v>396</v>
@@ -9766,7 +9762,7 @@
       </c>
       <c r="I148" s="85"/>
       <c r="J148" s="85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K148" s="85" t="s">
         <v>387</v>
@@ -9775,13 +9771,13 @@
         <v>347</v>
       </c>
       <c r="M148" s="85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N148" s="85" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O148" s="85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P148" s="85"/>
       <c r="Q148" s="85"/>
@@ -9859,7 +9855,7 @@
       </c>
       <c r="I150" s="86"/>
       <c r="J150" s="86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K150" s="86" t="s">
         <v>388</v>
@@ -9868,13 +9864,13 @@
         <v>348</v>
       </c>
       <c r="M150" s="86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N150" s="86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O150" s="86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P150" s="86"/>
       <c r="Q150" s="86"/>
@@ -9931,19 +9927,19 @@
         <v>429</v>
       </c>
       <c r="N152" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O152" s="85" t="s">
         <v>347</v>
       </c>
       <c r="P152" s="85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q152" s="85" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R152" s="85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S152" s="94"/>
       <c r="V152" s="60"/>
@@ -10028,19 +10024,19 @@
         <v>430</v>
       </c>
       <c r="N154" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O154" s="86" t="s">
         <v>348</v>
       </c>
       <c r="P154" s="86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q154" s="86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R154" s="86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S154" s="97"/>
       <c r="V154" s="60"/>
@@ -10072,29 +10068,29 @@
         <v>419</v>
       </c>
       <c r="F156" s="85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G156" s="85" t="s">
         <v>421</v>
       </c>
       <c r="H156" s="85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I156" s="85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J156" s="85"/>
       <c r="K156" s="85" t="s">
         <v>389</v>
       </c>
       <c r="L156" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M156" s="85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N156" s="85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O156" s="85"/>
       <c r="P156" s="85"/>
@@ -10159,29 +10155,29 @@
         <v>420</v>
       </c>
       <c r="F158" s="86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G158" s="86" t="s">
         <v>422</v>
       </c>
       <c r="H158" s="86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I158" s="86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J158" s="86"/>
       <c r="K158" s="86" t="s">
         <v>390</v>
       </c>
       <c r="L158" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M158" s="86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N158" s="86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O158" s="86"/>
       <c r="P158" s="86"/>
@@ -10232,7 +10228,7 @@
         <v>413</v>
       </c>
       <c r="M160" s="85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N160" s="85" t="s">
         <v>387</v>
@@ -10245,7 +10241,7 @@
         <v>411</v>
       </c>
       <c r="R160" s="85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="S160" s="94"/>
       <c r="V160" s="60"/>
@@ -10325,7 +10321,7 @@
         <v>414</v>
       </c>
       <c r="M162" s="86" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N162" s="86" t="s">
         <v>388</v>
@@ -10338,7 +10334,7 @@
         <v>412</v>
       </c>
       <c r="R162" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="S162" s="97"/>
       <c r="V162" s="60"/>
@@ -10389,7 +10385,7 @@
         <v>307</v>
       </c>
       <c r="M164" s="85" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N164" s="85" t="s">
         <v>399</v>
@@ -10484,7 +10480,7 @@
         <v>308</v>
       </c>
       <c r="M166" s="86" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N166" s="86" t="s">
         <v>400</v>
@@ -10523,10 +10519,10 @@
       <c r="B168" s="56"/>
       <c r="C168" s="1"/>
       <c r="D168" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E168" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F168" s="85" t="s">
         <v>325</v>
@@ -10618,10 +10614,10 @@
       <c r="B170" s="58"/>
       <c r="C170" s="1"/>
       <c r="D170" s="86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E170" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F170" s="86" t="s">
         <v>326</v>
@@ -10687,10 +10683,10 @@
       </c>
       <c r="F172" s="85"/>
       <c r="G172" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H172" s="85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I172" s="85" t="s">
         <v>325</v>
@@ -10709,7 +10705,7 @@
         <v>331</v>
       </c>
       <c r="O172" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P172" s="85"/>
       <c r="Q172" s="85"/>
@@ -10780,10 +10776,10 @@
       </c>
       <c r="F174" s="86"/>
       <c r="G174" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H174" s="86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I174" s="86" t="s">
         <v>326</v>
@@ -10802,7 +10798,7 @@
         <v>332</v>
       </c>
       <c r="O174" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P174" s="86"/>
       <c r="Q174" s="86"/>
@@ -11011,7 +11007,7 @@
         <v>413</v>
       </c>
       <c r="O180" s="85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P180" s="85" t="s">
         <v>389</v>
@@ -11102,7 +11098,7 @@
         <v>414</v>
       </c>
       <c r="O182" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P182" s="86" t="s">
         <v>390</v>
@@ -11142,16 +11138,16 @@
         <v>383</v>
       </c>
       <c r="G184" s="85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H184" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I184" s="85" t="s">
         <v>331</v>
       </c>
       <c r="J184" s="85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K184" s="85"/>
       <c r="L184" s="85"/>
@@ -11159,10 +11155,10 @@
         <v>389</v>
       </c>
       <c r="N184" s="85" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O184" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P184" s="85" t="s">
         <v>325</v>
@@ -11235,16 +11231,16 @@
         <v>384</v>
       </c>
       <c r="G186" s="86" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H186" s="86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I186" s="86" t="s">
         <v>332</v>
       </c>
       <c r="J186" s="86" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K186" s="86"/>
       <c r="L186" s="86"/>
@@ -11252,10 +11248,10 @@
         <v>390</v>
       </c>
       <c r="N186" s="86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O186" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P186" s="86" t="s">
         <v>326</v>
@@ -11304,19 +11300,19 @@
         <v>429</v>
       </c>
       <c r="J188" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K188" s="85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L188" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M188" s="85" t="s">
         <v>331</v>
       </c>
       <c r="N188" s="85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O188" s="85" t="s">
         <v>381</v>
@@ -11401,19 +11397,19 @@
         <v>430</v>
       </c>
       <c r="J190" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K190" s="86" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L190" s="86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M190" s="86" t="s">
         <v>332</v>
       </c>
       <c r="N190" s="86" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O190" s="86" t="s">
         <v>382</v>
@@ -11449,23 +11445,23 @@
       <c r="B192" s="56"/>
       <c r="C192" s="1"/>
       <c r="D192" s="85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E192" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F192" s="85"/>
       <c r="G192" s="85" t="s">
         <v>389</v>
       </c>
       <c r="H192" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I192" s="85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J192" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K192" s="85"/>
       <c r="L192" s="85" t="s">
@@ -11544,23 +11540,23 @@
       <c r="B194" s="58"/>
       <c r="C194" s="1"/>
       <c r="D194" s="86" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E194" s="86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F194" s="86"/>
       <c r="G194" s="86" t="s">
         <v>390</v>
       </c>
       <c r="H194" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I194" s="86" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J194" s="86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K194" s="86"/>
       <c r="L194" s="86" t="s">
@@ -11606,10 +11602,10 @@
       <c r="B196" s="56"/>
       <c r="C196" s="1"/>
       <c r="D196" s="85" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E196" s="85" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F196" s="85" t="s">
         <v>307</v>
@@ -11631,13 +11627,13 @@
         <v>429</v>
       </c>
       <c r="M196" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N196" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O196" s="85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P196" s="85" t="s">
         <v>389</v>
@@ -11705,10 +11701,10 @@
       <c r="B198" s="58"/>
       <c r="C198" s="1"/>
       <c r="D198" s="86" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E198" s="86" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F198" s="86" t="s">
         <v>308</v>
@@ -11730,13 +11726,13 @@
         <v>430</v>
       </c>
       <c r="M198" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N198" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O198" s="86" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P198" s="86" t="s">
         <v>390</v>
